--- a/Strokenplanning.xlsx
+++ b/Strokenplanning.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/km/Desktop/Vista/Challenges/Challenge 7/pokedeks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduofficenl-my.sharepoint.com/personal/208545_vistacollege_nl/Documents/Vista/Challenges/Challenge 7/pokedeks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8207F99D-6377-4240-8608-97B78092ACD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{8207F99D-6377-4240-8608-97B78092ACD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D91AA6B-9F2C-4739-A397-A84477865E44}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16200" xr2:uid="{A271F007-5F3A-7D4F-BAC4-1FC3717E9032}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{A271F007-5F3A-7D4F-BAC4-1FC3717E9032}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="62">
   <si>
     <t>Strokenplanning</t>
   </si>
@@ -197,6 +197,27 @@
   </si>
   <si>
     <t>Reflectie schrijven</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feedback op strokenplanning: Naam per taak uittypen in cel. </t>
+  </si>
+  <si>
+    <t>Plus kleuren gebruiken voor tijdsduur. Bijvoorbeeld:</t>
+  </si>
+  <si>
+    <t>Blauw: 15 minuten</t>
+  </si>
+  <si>
+    <t>Geel: 30 minuten</t>
+  </si>
+  <si>
+    <t>Groen: 45 minuten</t>
+  </si>
+  <si>
+    <t>Rood: 1 uur</t>
+  </si>
+  <si>
+    <t>Oranje: 1 uur en 15 minuten</t>
   </si>
 </sst>
 </file>
@@ -285,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -299,13 +320,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -620,52 +640,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F995B880-CCF8-5A4B-A2D1-8FB852A607F7}">
-  <dimension ref="A1:R47"/>
+  <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomRight" activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="56.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="15.6875" customWidth="1"/>
+    <col min="2" max="2" width="56.3125" style="2" customWidth="1"/>
     <col min="3" max="3" width="22" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="31" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" ht="30.75" x14ac:dyDescent="0.9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" ht="30.75" x14ac:dyDescent="0.9">
       <c r="A2" s="1"/>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9" t="s">
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9" t="s">
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-    </row>
-    <row r="3" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -721,7 +741,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A4" s="4" t="s">
         <v>28</v>
       </c>
@@ -730,25 +750,25 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.5">
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="12"/>
-    </row>
-    <row r="6" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.5">
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="13"/>
-    </row>
-    <row r="7" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.5">
       <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
@@ -757,34 +777,34 @@
       </c>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.5">
       <c r="B8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="13"/>
-    </row>
-    <row r="9" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.5">
       <c r="B9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="13"/>
-    </row>
-    <row r="10" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.5">
       <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="G10" s="13"/>
-    </row>
-    <row r="12" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G10" s="11"/>
+    </row>
+    <row r="12" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A12" s="4" t="s">
         <v>26</v>
       </c>
@@ -798,7 +818,7 @@
       <c r="O12" s="3"/>
       <c r="R12" s="3"/>
     </row>
-    <row r="13" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.5">
       <c r="B13" s="2" t="s">
         <v>34</v>
       </c>
@@ -812,7 +832,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.5">
       <c r="B14" s="2" t="s">
         <v>33</v>
       </c>
@@ -826,7 +846,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.5">
       <c r="B15" s="2" t="s">
         <v>36</v>
       </c>
@@ -834,7 +854,7 @@
       <c r="J15" s="8"/>
       <c r="O15" s="8"/>
     </row>
-    <row r="16" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.5">
       <c r="B16" s="2" t="s">
         <v>54</v>
       </c>
@@ -842,7 +862,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
@@ -851,7 +871,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.5">
       <c r="B19" s="2" t="s">
         <v>17</v>
       </c>
@@ -859,7 +879,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
@@ -867,7 +887,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A22" s="4" t="s">
         <v>19</v>
       </c>
@@ -878,44 +898,44 @@
       <c r="P22" s="3"/>
       <c r="R22" s="3"/>
     </row>
-    <row r="23" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.5">
       <c r="B23" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F23" s="11" t="s">
+      <c r="F23" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="G23" s="11"/>
-    </row>
-    <row r="24" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="G23" s="10"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.5">
       <c r="B24" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="F24" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="G24" s="11"/>
-    </row>
-    <row r="25" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.5">
       <c r="B25" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F25" s="11" t="s">
+      <c r="F25" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="G25" s="11"/>
-    </row>
-    <row r="26" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="G25" s="10"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.5">
       <c r="B26" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
       <c r="P26" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.5">
       <c r="B27" s="2" t="s">
         <v>32</v>
       </c>
@@ -923,7 +943,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A29" s="4" t="s">
         <v>25</v>
       </c>
@@ -933,16 +953,16 @@
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.5">
       <c r="B30" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="10"/>
+      <c r="D30" s="9"/>
       <c r="F30" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.5">
       <c r="B31" s="2" t="s">
         <v>39</v>
       </c>
@@ -953,13 +973,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.5">
       <c r="B32" s="2" t="s">
         <v>38</v>
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="34" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A34" s="4" t="s">
         <v>20</v>
       </c>
@@ -970,7 +990,7 @@
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
     </row>
-    <row r="35" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.5">
       <c r="B35" s="2" t="s">
         <v>40</v>
       </c>
@@ -978,12 +998,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.5">
       <c r="B36" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.5">
       <c r="B37" s="2" t="s">
         <v>42</v>
       </c>
@@ -991,7 +1011,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.5">
       <c r="B38" s="2" t="s">
         <v>44</v>
       </c>
@@ -1002,18 +1022,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.5">
       <c r="B39" s="2" t="s">
         <v>46</v>
       </c>
       <c r="K39" s="8"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.5">
       <c r="M40" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A41" s="4" t="s">
         <v>21</v>
       </c>
@@ -1023,7 +1043,7 @@
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
     </row>
-    <row r="42" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.5">
       <c r="B42" s="2" t="s">
         <v>43</v>
       </c>
@@ -1031,7 +1051,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.5">
       <c r="B43" s="2" t="s">
         <v>45</v>
       </c>
@@ -1043,7 +1063,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A45" s="4" t="s">
         <v>22</v>
       </c>
@@ -1052,7 +1072,7 @@
       <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
     </row>
-    <row r="46" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.5">
       <c r="B46" s="2" t="s">
         <v>23</v>
       </c>
@@ -1061,12 +1081,47 @@
       </c>
       <c r="Q46" s="8"/>
     </row>
-    <row r="47" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.5">
       <c r="B47" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Q47" s="8" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B50" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B51" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B52" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B53" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B54" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B55" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B56" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/Strokenplanning.xlsx
+++ b/Strokenplanning.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduofficenl-my.sharepoint.com/personal/208545_vistacollege_nl/Documents/Vista/Challenges/Challenge 7/pokedeks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduofficenl-my.sharepoint.com/personal/208545_vistacollege_nl/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{8207F99D-6377-4240-8608-97B78092ACD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D91AA6B-9F2C-4739-A397-A84477865E44}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="8_{CF68EEE6-2E17-4263-A1C6-314D1F6A34CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B82F9D29-655F-4B1A-A596-A8EDE201714E}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{A271F007-5F3A-7D4F-BAC4-1FC3717E9032}"/>
   </bookViews>
@@ -199,25 +199,25 @@
     <t>Reflectie schrijven</t>
   </si>
   <si>
-    <t xml:space="preserve">Feedback op strokenplanning: Naam per taak uittypen in cel. </t>
-  </si>
-  <si>
-    <t>Plus kleuren gebruiken voor tijdsduur. Bijvoorbeeld:</t>
-  </si>
-  <si>
-    <t>Blauw: 15 minuten</t>
-  </si>
-  <si>
-    <t>Geel: 30 minuten</t>
-  </si>
-  <si>
-    <t>Groen: 45 minuten</t>
-  </si>
-  <si>
-    <t>Rood: 1 uur</t>
-  </si>
-  <si>
-    <t>Oranje: 1 uur en 15 minuten</t>
+    <t>Index: kleuren die bij tijdvak horen</t>
+  </si>
+  <si>
+    <t>15 minuten</t>
+  </si>
+  <si>
+    <t>30 minuten</t>
+  </si>
+  <si>
+    <t>45 minuten</t>
+  </si>
+  <si>
+    <t>60 minuten</t>
+  </si>
+  <si>
+    <t>1 uur en 15 minuten</t>
+  </si>
+  <si>
+    <t>Gehele dag</t>
   </si>
 </sst>
 </file>
@@ -247,7 +247,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -274,13 +274,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0066"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,7 +330,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -322,16 +346,26 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF0066"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -640,13 +674,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F995B880-CCF8-5A4B-A2D1-8FB852A607F7}">
-  <dimension ref="A1:R56"/>
+  <dimension ref="A1:R55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C48" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B56" sqref="B56"/>
+      <selection pane="bottomRight" activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -663,27 +697,27 @@
     </row>
     <row r="2" spans="1:18" ht="30.75" x14ac:dyDescent="0.9">
       <c r="A2" s="1"/>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12" t="s">
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12" t="s">
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
@@ -754,55 +788,55 @@
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="10"/>
+      <c r="G5" s="12"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.5">
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="11"/>
+      <c r="G6" s="16"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.5">
       <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="8"/>
+      <c r="F7" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="13"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.5">
       <c r="B8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="11"/>
+      <c r="G8" s="12"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.5">
       <c r="B9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="11"/>
+      <c r="G9" s="12"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.5">
       <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="G10" s="11"/>
+      <c r="G10" s="12"/>
     </row>
     <row r="12" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A12" s="4" t="s">
@@ -822,13 +856,13 @@
       <c r="B13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="I13" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="N13" s="8" t="s">
+      <c r="I13" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="N13" s="16" t="s">
         <v>35</v>
       </c>
     </row>
@@ -836,13 +870,13 @@
       <c r="B14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="O14" s="8" t="s">
+      <c r="E14" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="O14" s="15" t="s">
         <v>35</v>
       </c>
     </row>
@@ -850,15 +884,15 @@
       <c r="B15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="O15" s="8"/>
+      <c r="E15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="O15" s="16"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.5">
       <c r="B16" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="R16" s="8" t="s">
+      <c r="R16" s="15" t="s">
         <v>35</v>
       </c>
     </row>
@@ -902,36 +936,36 @@
       <c r="B23" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F23" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="G23" s="10"/>
+      <c r="G23" s="16"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.5">
       <c r="B24" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="F24" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="G24" s="10"/>
+      <c r="G24" s="16"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.5">
       <c r="B25" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F25" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="G25" s="10"/>
+      <c r="G25" s="16"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.5">
       <c r="B26" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="P26" s="8" t="s">
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="P26" s="10" t="s">
         <v>35</v>
       </c>
     </row>
@@ -939,7 +973,7 @@
       <c r="B27" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="R27" s="8" t="s">
+      <c r="R27" s="15" t="s">
         <v>35</v>
       </c>
     </row>
@@ -958,7 +992,7 @@
         <v>27</v>
       </c>
       <c r="D30" s="9"/>
-      <c r="F30" s="8" t="s">
+      <c r="F30" s="12" t="s">
         <v>35</v>
       </c>
     </row>
@@ -966,10 +1000,10 @@
       <c r="B31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G31" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H31" s="8" t="s">
+      <c r="G31" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H31" s="12" t="s">
         <v>35</v>
       </c>
     </row>
@@ -977,7 +1011,7 @@
       <c r="B32" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H32" s="8"/>
+      <c r="H32" s="12"/>
     </row>
     <row r="34" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A34" s="4" t="s">
@@ -994,7 +1028,7 @@
       <c r="B35" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H35" s="8" t="s">
+      <c r="H35" s="15" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1007,7 +1041,7 @@
       <c r="B37" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H37" s="8" t="s">
+      <c r="H37" s="15" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1015,10 +1049,10 @@
       <c r="B38" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K38" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="L38" s="8" t="s">
+      <c r="K38" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="L38" s="15" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1026,12 +1060,13 @@
       <c r="B39" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K39" s="8"/>
+      <c r="K39" s="15"/>
+      <c r="M39" s="15" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="M40" s="8" t="s">
-        <v>35</v>
-      </c>
+      <c r="M40" s="17"/>
     </row>
     <row r="41" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A41" s="4" t="s">
@@ -1047,7 +1082,7 @@
       <c r="B42" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K42" s="8" t="s">
+      <c r="K42" s="12" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1055,11 +1090,11 @@
       <c r="B43" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="M43" s="8" t="s">
+      <c r="K43" s="12"/>
+      <c r="L43" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="M43" s="12" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1076,51 +1111,51 @@
       <c r="B46" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="P46" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q46" s="8"/>
+      <c r="P46" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q46" s="12"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.5">
       <c r="B47" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Q47" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B50" s="2" t="s">
+      <c r="Q47" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A49" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B51" s="2" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A50" s="12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B52" s="2" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A51" s="13" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B53" s="2" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A52" s="10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B54" s="2" t="s">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A53" s="14" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B55" s="2" t="s">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A54" s="15" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B56" s="2" t="s">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A55" s="16" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1132,4 +1167,286 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000AA769D0AF69234AB5929D912A6B1319" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e2508ca1cd0402ff5da98f09077e9e1a">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="5b9b3a64-8b1f-4887-86bd-69460fd8feae" xmlns:ns4="c51b048e-3de4-4b2f-8a3d-a58c0c8d4a66" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4cbb39cd51e9596bcd2e32491c7ed687" ns3:_="" ns4:_="">
+    <xsd:import namespace="5b9b3a64-8b1f-4887-86bd-69460fd8feae"/>
+    <xsd:import namespace="c51b048e-3de4-4b2f-8a3d-a58c0c8d4a66"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns3:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns4:_activity" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="5b9b3a64-8b1f-4887-86bd-69460fd8feae" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Gedeeld met" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="Gedeeld met details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="10" nillable="true" ma:displayName="Hint-hash delen" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="c51b048e-3de4-4b2f-8a3d-a58c0c8d4a66" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="12" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="13" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="14" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="15" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="16" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="17" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="18" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="19" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_activity" ma:index="20" nillable="true" ma:displayName="_activity" ma:hidden="true" ma:internalName="_activity">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Inhoudstype"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titel"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="c51b048e-3de4-4b2f-8a3d-a58c0c8d4a66" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F2C619F-FD41-40DD-9852-A9D6B64A8A45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="5b9b3a64-8b1f-4887-86bd-69460fd8feae"/>
+    <ds:schemaRef ds:uri="c51b048e-3de4-4b2f-8a3d-a58c0c8d4a66"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D91379D9-7A61-4B26-98CA-850F8926CBA5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D4F51C9-AC61-452B-B8A5-85D32E6DCB3E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="5b9b3a64-8b1f-4887-86bd-69460fd8feae"/>
+    <ds:schemaRef ds:uri="c51b048e-3de4-4b2f-8a3d-a58c0c8d4a66"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Strokenplanning.xlsx
+++ b/Strokenplanning.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduofficenl-my.sharepoint.com/personal/208545_vistacollege_nl/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KM\Desktop\pokedeks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="8_{CF68EEE6-2E17-4263-A1C6-314D1F6A34CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B82F9D29-655F-4B1A-A596-A8EDE201714E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F90EDAB1-F028-493B-A600-957D8264741D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{A271F007-5F3A-7D4F-BAC4-1FC3717E9032}"/>
   </bookViews>
@@ -330,7 +330,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -346,15 +346,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -677,10 +676,10 @@
   <dimension ref="A1:R55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K14" sqref="K14"/>
+      <selection pane="bottomRight" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -697,27 +696,27 @@
     </row>
     <row r="2" spans="1:18" ht="30.75" x14ac:dyDescent="0.9">
       <c r="A2" s="1"/>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11" t="s">
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11" t="s">
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
@@ -788,55 +787,55 @@
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="12"/>
+      <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.5">
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="16"/>
+      <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.5">
       <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="13"/>
+      <c r="F7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="12"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.5">
       <c r="B8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="12"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.5">
       <c r="B9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="12"/>
+      <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.5">
       <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="G10" s="12"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="12" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A12" s="4" t="s">
@@ -856,13 +855,13 @@
       <c r="B13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="I13" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="N13" s="16" t="s">
+      <c r="I13" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="N13" s="15" t="s">
         <v>35</v>
       </c>
     </row>
@@ -870,13 +869,13 @@
       <c r="B14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="J14" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="O14" s="15" t="s">
+      <c r="E14" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="O14" s="14" t="s">
         <v>35</v>
       </c>
     </row>
@@ -884,15 +883,15 @@
       <c r="B15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="O15" s="16"/>
+      <c r="E15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="O15" s="15"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.5">
       <c r="B16" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="R16" s="15" t="s">
+      <c r="R16" s="14" t="s">
         <v>35</v>
       </c>
     </row>
@@ -936,35 +935,33 @@
       <c r="B23" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F23" s="16" t="s">
+      <c r="F23" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G23" s="16"/>
+      <c r="G23" s="14"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.5">
       <c r="B24" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F24" s="16" t="s">
+      <c r="F24" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G24" s="16"/>
+      <c r="G24" s="14"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.5">
       <c r="B25" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F25" s="16" t="s">
+      <c r="F25" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G25" s="16"/>
+      <c r="G25" s="14"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.5">
       <c r="B26" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
       <c r="P26" s="10" t="s">
         <v>35</v>
       </c>
@@ -973,7 +970,7 @@
       <c r="B27" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="R27" s="15" t="s">
+      <c r="R27" s="14" t="s">
         <v>35</v>
       </c>
     </row>
@@ -992,7 +989,7 @@
         <v>27</v>
       </c>
       <c r="D30" s="9"/>
-      <c r="F30" s="12" t="s">
+      <c r="F30" s="11" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1000,10 +997,10 @@
       <c r="B31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G31" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="H31" s="12" t="s">
+      <c r="G31" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H31" s="11" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1011,7 +1008,7 @@
       <c r="B32" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H32" s="12"/>
+      <c r="H32" s="11"/>
     </row>
     <row r="34" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A34" s="4" t="s">
@@ -1028,7 +1025,7 @@
       <c r="B35" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H35" s="15" t="s">
+      <c r="H35" s="14" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1041,7 +1038,7 @@
       <c r="B37" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H37" s="15" t="s">
+      <c r="H37" s="14" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1049,10 +1046,10 @@
       <c r="B38" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K38" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="L38" s="15" t="s">
+      <c r="K38" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="L38" s="14" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1060,13 +1057,10 @@
       <c r="B39" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K39" s="15"/>
-      <c r="M39" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="M40" s="17"/>
+      <c r="K39" s="14"/>
+      <c r="M39" s="14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="41" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A41" s="4" t="s">
@@ -1082,7 +1076,7 @@
       <c r="B42" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K42" s="12" t="s">
+      <c r="K42" s="11" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1090,11 +1084,11 @@
       <c r="B43" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="K43" s="12"/>
-      <c r="L43" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="M43" s="12" t="s">
+      <c r="K43" s="11"/>
+      <c r="L43" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="M43" s="11" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1111,16 +1105,16 @@
       <c r="B46" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="P46" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q46" s="12"/>
+      <c r="P46" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q46" s="11"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.5">
       <c r="B47" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Q47" s="12" t="s">
+      <c r="Q47" s="11" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1130,12 +1124,12 @@
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A50" s="12" t="s">
+      <c r="A50" s="11" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A51" s="13" t="s">
+      <c r="A51" s="12" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1145,17 +1139,17 @@
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A53" s="14" t="s">
+      <c r="A53" s="13" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A54" s="15" t="s">
+      <c r="A54" s="14" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A55" s="16" t="s">
+      <c r="A55" s="15" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1170,6 +1164,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="c51b048e-3de4-4b2f-8a3d-a58c0c8d4a66" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000AA769D0AF69234AB5929D912A6B1319" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e2508ca1cd0402ff5da98f09077e9e1a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="5b9b3a64-8b1f-4887-86bd-69460fd8feae" xmlns:ns4="c51b048e-3de4-4b2f-8a3d-a58c0c8d4a66" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4cbb39cd51e9596bcd2e32491c7ed687" ns3:_="" ns4:_="">
     <xsd:import namespace="5b9b3a64-8b1f-4887-86bd-69460fd8feae"/>
@@ -1390,24 +1401,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D4F51C9-AC61-452B-B8A5-85D32E6DCB3E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="5b9b3a64-8b1f-4887-86bd-69460fd8feae"/>
+    <ds:schemaRef ds:uri="c51b048e-3de4-4b2f-8a3d-a58c0c8d4a66"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="c51b048e-3de4-4b2f-8a3d-a58c0c8d4a66" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D91379D9-7A61-4B26-98CA-850F8926CBA5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F2C619F-FD41-40DD-9852-A9D6B64A8A45}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1424,29 +1443,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D91379D9-7A61-4B26-98CA-850F8926CBA5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D4F51C9-AC61-452B-B8A5-85D32E6DCB3E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="5b9b3a64-8b1f-4887-86bd-69460fd8feae"/>
-    <ds:schemaRef ds:uri="c51b048e-3de4-4b2f-8a3d-a58c0c8d4a66"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>